--- a/data/minfin/31_questions.xlsx
+++ b/data/minfin/31_questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="322">
   <si>
     <t>question</t>
   </si>
@@ -140,6 +140,39 @@
     <t>https://www.minfin.ru/ru/perfomance/#ixzz4nszNmCKC</t>
   </si>
   <si>
+    <t>Биография Министра финансов А.Г. Силуанова</t>
+  </si>
+  <si>
+    <t>Биография первого заместителя Министра Нестеренко Татьяны Геннадьевны</t>
+  </si>
+  <si>
+    <t>Биография заместителя Министра Горнина Леонида Владимировича</t>
+  </si>
+  <si>
+    <t>Биография статс-секретаря - заместителя Министра Зубарева Юрия Ивановича</t>
+  </si>
+  <si>
+    <t>Биография заместителя Министра Иванова Андрея Юрьевича</t>
+  </si>
+  <si>
+    <t>Биография заместителя Министра Колычева Владимира Владимироваича</t>
+  </si>
+  <si>
+    <t>Биография заместителя Министра Лаврова Алексея Михайловича</t>
+  </si>
+  <si>
+    <t>Биография заместителя Министра Моисеева Алексея Владимировича</t>
+  </si>
+  <si>
+    <t>Биография заместителя Министра Трунина Ильи Вячеславовича</t>
+  </si>
+  <si>
+    <t>Биография заместителя Министра Сторчака Сергея Анатольевича</t>
+  </si>
+  <si>
+    <t>Биография заместителя Министра Котякова Антона Олеговича</t>
+  </si>
+  <si>
     <t>Сколько департаментов в Министерстве Финансов? (и какие?)</t>
   </si>
   <si>
@@ -162,6 +195,412 @@
   </si>
   <si>
     <t>31.11</t>
+  </si>
+  <si>
+    <t>Биография, Министр, финансов, Силуанов</t>
+  </si>
+  <si>
+    <t>Силуанов Антон Германович, одна тысяча девятьсот шестьдесят третьего года рождения. В должности Министр финансов Российской Федерации находится с две тысячи одиннадцатого года по настоящее время.
+Антон Германович награжден почётной грамотой Министерства финансов Российской Федерации и орденом «За заслуги перед Отечеством» третьей степени, а также ему объявлена Благодарность Президента Российской Федерации</t>
+  </si>
+  <si>
+    <t>Силуанов Антон Германович - Министр финансов Российской Федерации с 2011 года по настоящее время
+Биография:
+Родился 12 апреля 1963 г. в г. Москва.
+Образование высшее. Доктор экономических наук.
+Владеет немецким языком.
+В 1985 г. окончил Московский финансовый институт по специальности “финансы и кредит”.
+08.1985-03.1987 - Министерство финансов РСФСР, экономист, старший экономист.
+03.1987-05.1989 – Служба в Советской Армии.
+05.1989-01.1992 – Министерство финансов РСФСР, ведущий экономист, экономист 1-ой категории, ведущий экономист, заместитель начальника подотдела, консультант.
+02.1992-02.1992 – Министерство экономики и финансов Российской Федерации, заместитель начальника отдела.
+02.1992-10.1997 – Министерство финансов Российской Федерации, заместитель начальника отдела Бюджетного управления, заместитель руководителя Бюджетного Департамента – начальник отдела, заместитель руководителя Бюджетного Департамента.
+10.1997-07.2003 – Министерство финансов Российской Федерации, руководитель Департамента макроэкономической политики и банковской деятельности, с 22.03.2001 г. – член Коллегии Минфина.
+07.2003-05.2004 – заместитель Министра финансов Российской Федерации.
+05.2004 - 12.2005 – Директор Департамента межбюджетных отношений.
+12.2005 – 09.2011 – Заместитель Министра финансов Российской Федерации.
+09.2011 – 12.2011 – и.о. Министра финансов Российской Федерации.
+12.2011 – по н/вр - Министр финансов Российской Федерации.
+В 2001 г. – награжден почётной грамотой Министерства финансов Российской Федерации;
+В 2002 г. – объявлена Благодарность Президента Российской Федерации.
+В 2002 г. – объявлена Благодарность Министра финансов Российской Федерации
+В 2013 г. – награжден орденом «За заслуги перед Отечеством» III степени</t>
+  </si>
+  <si>
+    <t>Раздел «Руководство» на официальном сайте Министерства финансов Российской Федерации</t>
+  </si>
+  <si>
+    <t>https://www.minfin.ru/ru/ministry/structure/management/?id_4=5</t>
+  </si>
+  <si>
+    <t>Биография, первого, заместителя, Министра, Нестеренко</t>
+  </si>
+  <si>
+    <t>Нестеренко Татьяна Геннадьевна, одна тысяча девятьсот пятьдесят девятого года рождения. В должности первого заместителя Министра финансов Российской Федерации находится с две тысячи двенадцатого года. 
+За время службы Татьяне Геннадьевне присвоено Почетное звание «Заслуженный экономист Российской Федерации» и трижды была объявлена благодарность Президента Российской Федерации, также она награждена Почетной грамотой Правительства Российской Федерации и Медалью ордена «За заслуги перед Отечеством» первой и второй степени, Орденом Дружбы и Орденом Почета</t>
+  </si>
+  <si>
+    <t>Нестеренко Татьяна Геннадьевна - Первый заместитель Министра финансов Российской Федерации с 2012 года по настоящее время.
+Биография:
+Родилась 5 августа 1959 г. в г. Владивостоке Приморского края.
+Образование высшее, в 1981 г. окончила Хабаровский институт народного хозяйства по специальности “финансы и кредит”, кандидат экономических наук.
+1981-1984 – экономист по финансированию народного хозяйства финансового отдела Анадырского райисполкома Чукотского автономного округа, г. Анадырь.
+1984-1989 – ревизор – инспектор по бюджету, заместитель заведующего – начальник инспекции по бюджету Анадырского райфинотдела Чукотского автономного округа, г. Анадырь.
+1989-1991 – заведующий финансовым отделом Чукотского окрисполкома, г. Анадырь.
+1991-1994 – заместитель Главы администрации – начальник финансового управления администрации Чукотского автономного округа, г. Анадырь.
+1994-1998 – депутат Государственной Думы Федерального Собрания Российской Федерации, член Комитета Государственной Думы по бюджету, налогам, банкам и финансам.
+01.1998 – 05.2004 – заместитель Министра финансов Российской Федерации – начальник Главного управления федерального казначейства, с 26.08.2004 - член Коллегии Минфина России.
+05.2004 – 12.2004 – директор Департамента – Главного управления федерального казначейства Министерства финансов Российской Федерации.
+01.2005 – 09.2007 – руководитель Федерального казначейства (Казначейство России).
+09.2007 – 10.2012 – заместитель Министра финансов Российской Федерации.
+10.2012 – по н/вр – первый заместитель Министра финансов Российской Федерации
+В 1996 г. объявлена благодарность Президента Российской Федерации
+В 2001 г. награждена Медалью ордена “За заслуги перед Отечеством” II степени
+В 2002 г. награждена Почетной грамотой Правительства Российской Федерации.
+В 2002 г., 2004 г. объявлена благодарность Министра финансов Российской Федерации.
+В 2004 г. присвоено Почетное звание “Заслуженный экономист Российской Федерации”.
+В 2004 г. объявлена благодарность Правительства Российской Федерации.
+В 2007 г. объявлена благодарность Президента Российской Федерации.
+В 2007 г. награждена Орденом Почета.
+В 2010 г. награждена знаком отличия «За безупречную службу» XXV лет
+В 2011 г. объявлена благодарность Президента Российской Федерации
+В 2012 г. награждена Орденом Дружбы
+В 2014 г. награждена Медалью ордена “За заслуги перед Отечеством” I степени</t>
+  </si>
+  <si>
+    <t>https://www.minfin.ru/ru/ministry/structure/management/?id_4=34</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Горнин</t>
+  </si>
+  <si>
+    <t>Горнин Леонид Владимирович, одна тысяча девятьсот семьдесят второго года рождения. Кандидат экономических наук. В должности заместителя Министра финансов Российской Федерации находится с две тысячи двенадцатого года. 
+За время службы награжден Медалью «За заслуги в проведении Всероссийской сельскохозяйственной переписи две тысячи шестого года» Федеральной службы государственной статистики</t>
+  </si>
+  <si>
+    <t>Горнин Леонид Владимирович - Заместитель Министра финансов Российской Федерации с 2012 года по настоящее время.
+Биография:
+Родился 30 декабря 1972 года в г. Новосибирск.
+Образование – высшее, кандидат экономических наук.
+В 1997 г. окончил Сибирскую коммерческую академию потребительской кооперации, инженер-технолог.
+В 2004 г. окончил Сибирский государственный университет путей сообщения, специализация бухгалтерский учет, анализ и аудит
+1997 г. – Академия бюджета и казначейства Министерства финансов РФ, организационно-экономическое направление.
+2006 г. – Академия народного хозяйства при Правительстве Российской Федерации (г. Москва), организационно-экономическое направление.
+Владеет английским языком.
+До 1997 года работал в различных коммерческих структурах.
+04.1997 – 01.1999 – контролер-ревизор в Аппарате Контрольно-ревизионного управления Министерства финансов Российской Федерации по Новосибирской области, с 09.1998 - старший контролер-ревизор в Аппарате Контрольно-ревизионного управления Министерства финансов Российской Федерации по Новосибирской области.
+02.1999 – 10.2011 – заместитель начальника отдела, начальник отдела – главный бухгалтер, заместитель начальника управления – начальник отдела Управления финансов и налоговой политики Администрации Новосибирской области, с 04.2004 – и.о. начальника управления, начальник Управления финансовой и налоговой политики Новосибирской области, с 07.2008 – руководитель Департамента финансов и налоговой политики Новосибирской области, с 04.2010 – и.о. Министра финансов и налоговой политики Новосибирской области, Министр финансов и налоговой политики Новосибирской области.
+10.2011 – 08.2012 – и.о. первого заместителя губернатора Новосибирской области, первый заместитель губернатора Новосибирской области в Администрации Губернатора Новосибирской области.
+03.09.2012 – по н/вр – Заместитель Министра финансов Российской Федерации.
+2006 г. – награжден Медалью «За заслуги в проведении Всероссийской сельскохозяйственной переписи 2006 года» Федеральной службы государственной статистики.
+Женат, имеет 2 детей</t>
+  </si>
+  <si>
+    <t>Биография, секретарь, заместителя, Министра, Зубарев</t>
+  </si>
+  <si>
+    <t>Зубарев Юрий Иванович, одна тысяча девятьсот шестьдесят шестого года рождения. 
+В должности статс-секретаря–заместителя Министра финансов Российской Федерации находится с две тысячи тринадцатого года. 
+За время службы Юрию Ивановичу объявлена благодарность Президента и Правительства Российской Федерации, награжден нагрудным знаком «Отличник финансовой работы» Министерства финансов Российской Федерации, Медалью ордена «За заслуги перед Отечеством» первой и второй степени</t>
+  </si>
+  <si>
+    <t>Зубарев Юрий Иванович  - статс-секретарь - заместитель Министра финансов Российской Федерации с 2013 года по настоящее время.
+Биография:
+Родился 11 августа 1966 года в г. Киев.
+Образование высшее.
+В 1988 г. окончил Московский государственный институт международных отношений по специальности "Международные экономические отношения".
+В 2005 г. окончил Государственный университет – Высшую школу экономики по специальности «Юриспруденция».
+1988 - 1989 – младший научный сотрудник отдела рынка сырьевых товаров Всесоюзного научно-исследовательского конъюнктурного института Министерства внешних экономических связей СССР;
+1989 - 1991 – референт-секретарь Генерального консульства СССР в Индонезии;
+1991- 1994 – атташе, заведующий консульским отделом Посольства России в Малайзии;
+1994 - 1997 – сотрудник отдела экономического сотрудничества с США и Канадой Департамента Северной Америки Министерства иностранных дел Российской Федерации;
+1997 - 2002 – первый секретарь, заведующий информационным отделом Посольства России в США;
+2002 – советник Департамента Северной Америки Министерства иностранных дел Российской Федерации, заместитель декана Московского государственного института международных отношений Министерства иностранных дел Российской Федерации;
+2002 - 2004 – начальник Управления по связям с государственными, общественными организациями и СМИ Министерства финансов Российской Федерации;
+2004 - 2013 – помощник Министра финансов Российской Федерации по взаимодействию с Государственной Думой, Советом Федерации и Счетной Палатой Российской Федерации;
+2013 - по н/вр – статс-секретарь–заместитель Министра финансов Российской Федерации.
+В 2006 г. награжден Медалью ордена «За заслуги перед Отечеством» II степени.
+В 2007 г. объявлена Благодарность Президента Российской Федерации.
+В 2009 г. объявлена Благодарность Правительства Российской Федерации.
+В 2011 г. награжден Медалью ордена «За заслуги перед Отечеством» I степени.
+В 2011 г. объявлена Благодарность Министра финансов Российской Федерации.
+В 2012 г. награжден нагрудным знаком «Отличник финансовой работы» Министерства финансов Российской Федерации</t>
+  </si>
+  <si>
+    <t>https://www.minfin.ru/ru/ministry/structure/management/?id_4=100</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Иванов, Андрей, Юрьевич, А.И.</t>
+  </si>
+  <si>
+    <t>Иванов Андрей Юрьевич, одна тысяча девятьсот семьдесят пятого года рождения. 
+В должности заместителя Министра финансов Российской Федерации находится с две тысячи двенадцатого года. С две тысячи одиннадцатого года является Членом коллегии Минфина России.
+За время службы Андрей Юрьевич награжден медалью ордена «За заслуги перед Отечеством» второй степени и серебряной Медалью «За вклад в развитие агропромышленного комплекса России» Министерства сельского хозяйства Российской Федерации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванов Андрей Юрьевич - заместитель Министра финансов Российской Федерации с 2012 года по настоящее время.
+Биография:
+Родился 23 ноября 1975 г. в г. Дудинка.
+Образование высшее. В 1997 г. окончил Красноярский государственный университет по специальности «юриспруденция».
+2009 - Российская академия государственной службы при Президенте Российской Федерации (г. Москва). Направление управленческое
+2010 - Российская академия государственной службы при Президенте Российской Федерации (г. Москва). Направление организационно-экономическое.
+1997-1998 стажер-исследователь Красноярского государственного университета.
+1998-2004 ведущий специалист, главный специалист Администрации Красноярского края, советник Губернатора края по правовым вопросам, советник Губернатора края по правовым вопросам и местному самоуправлению, с 29.12.2001 Совет администрации Красноярского края, советник Губернатора края по правовым вопросам и местному самоуправлению, начальник Управления.
+2004-2008 вице-президент Общества с ограниченной ответственностью «Сибирский машиностроительный холдинг», с 14.08.2006 первый вице-президент «СМ.холдинг».
+2008 Председатель Совета директоров «Инвестиционной компании «СМ.арт».
+2008-2012 заместитель директора департамента, директор Департамента бюджетной политики в сфере инноваций, промышленности гражданского назначения, энергетики, связи и частно-государственного партнерства Министерства финансов Российской Федерации.
+06.2012 – по н/вр. заместитель Министра финансов Российской Федерации.
+С 10.02.2011 г.  является Членом коллегии Минфина России.
+2009 – объявлена Благодарность Министерства сельского хозяйства Российской Федерации.
+2011 – награжден Медалью Прокуратуры Российской Федерации «290 лет прокуратуре России».
+2012 – объявлена Благодарность Министра связи и массовых коммуникаций Российской Федерации.
+2012 – награжден Медалью ордена «За заслуги перед Отечеством» II степени.
+2012 – награжден серебряной Медалью «За вклад в развитие агропромышленного комплекса России» Министерства сельского хозяйства Российской Федерации
+</t>
+  </si>
+  <si>
+    <t>https://www.minfin.ru/ru/ministry/structure/management/?id_4=84</t>
+  </si>
+  <si>
+    <t>Колычев Владимир Владимирович, одна тысяча восемьдесят  третьего года рождения. В должности заместителя Министра финансов Российской Федерации находится с две тысячи семнадцатого года. Женат, имеет двоих детей</t>
+  </si>
+  <si>
+    <t>Колычев Владимир Владимирович - заместитель Министра финансов Российской Федерации с 2017 года по настоящее время.
+Биография:
+Родился 24 июня 1983 г. в д. Черное Московской области.
+Образование – высшее. В 2006 г. окончил Российскую Академию Народного Хозяйства и Государственной Службы при Правительстве РФ (РАНХиГС) по специальности «Финансы и кредит».
+Владеет английским языком
+09.2005 – 09.2013 – аналитик, старший менеджер, начальник Управления исследований и аналитики ОАО АКБ «РОСБАНК».
+09.2013 – 05.2015 – главный экономист по России ЗАО «ВТБ Капитал».
+05.2015 – 02.2017 – Директор Департамента долгосрочного стратегического планирования Министерства финансов Российской Федерации.
+02.2017 – по н/вр – Заместитель Министра финансов Российской Федерации.
+Женат, имеет 2 детей</t>
+  </si>
+  <si>
+    <t>https://www.minfin.ru/ru/ministry/structure/management/?id_4=478</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Колычев, Владимир, Владимирович</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Лавров, Алексей, Михайлович</t>
+  </si>
+  <si>
+    <t>Лавров Алексей Михайлович, одна тысяча девятьсот пятьдесят девятого года рождения. В должности заместителя Министра финансов Российской Федерации находится с две тысячи одиннадцатого года. С две тысячи четверного года является Членом коллегии Минфина России.
+За время службы Алексей Михайлович награжден нагрудным знаком «Отличник финансовой работы» Министерства Финансов Российской Федерации, Орденом Почета и орденами "За заслуги перед Отечеством" первой и второй степени</t>
+  </si>
+  <si>
+    <t>Лавров Алексей Михайлович - заместитель Министра финансов Российской Федерации с 2011 года по настоящее время.
+Биография:
+Родился 30 июня 1959г. в г. Казани.
+С 08.2004 – член коллегии Минфина России.
+Образование высшее. В 1982 г. окончил Московский государственный университет им. М.В. Ломоносова по специальности "экономическая география", в 1985 г. - аспирантуру. Стажировался в Бирмингемском университете и в Организации экономического сотрудничества и развития. 
+Кандидат географических наук.
+Владеет английским языком. 
+08.1976 - 08.1977 г. лаборант Казанского государственного университета им. В.И. Ульянова-Ленина.
+03.1986 - 11.1992 г. младший научный сотрудник, старший научный сотрудник, ведущий научный сотрудник Центрального научно-исследовательского экономического института (ЦЭНИИ) при Госплане РСФСР.
+07.1994 - 09.1997 г. главный аналитик, консультант, советник Администрации Президента Российской Федерации.
+06.1998 - 09.1998 г. советник заместителя Председателя Правительства Российской Федерации.
+11.1998 - 11.2002 г. советник, заместитель руководителя Департамента межбюджетных отношений - начальник отдела Министерства финансов Российской Федерации.
+11.2002 - 05.2004 г. руководитель Департамента бюджетной политики Министерства финансов Российской Федерации.
+05.2004 - 07.2008 г. директор Департамента бюджетной политики Министерства финансов Российской Федерации.
+07.2008 – 06.2011 г.  директор Департамента бюджетной политики и методологии Министерства финансов Российской Федерации.
+06.2011 – н.в. заместитель Министра финансов Российской Федерации.
+В 2001 г. награжден Почетной грамотой Правительства Российской Федерации.
+В 2002 г. награжден медалью ордена "За заслуги перед Отечеством" II степени.
+В 2003 г. награжден медалью "В память 300-летия Санкт-Петербурга".
+В 2004 г. объявлена Благодарность Президента Российской Федерации.
+В 2004 г награжден нагрудным знаком «Отличник финансовой работы» Министерства Финансов Российской Федерации
+В 2006 г. награжден медалью ордена "За заслуги перед Отечеством" I степени.
+В 2006 г. объявлена Благодарность Президента Российской Федерации 
+В 2007 г объявлена Благодарность Правительства Российской Федерации.
+В 2010 г. объявлена Благодарность Президента Российской Федерации.
+В 2011 г. объявлена Благодарность Президента Российской Федерации.
+В 2011 г награжден Орденом Почета.
+Действительный государственный советник Российской Федерации 1</t>
+  </si>
+  <si>
+    <t>https://www.minfin.ru/ru/ministry/structure/management/?id_4=11</t>
+  </si>
+  <si>
+    <t>Лавров Алексей Михайлович</t>
+  </si>
+  <si>
+    <t>31.11.jpg</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Моисеев, Алексей, Владимирович</t>
+  </si>
+  <si>
+    <t>Моисеев Алексей Владимирович, одна тысяча девятьсот семьдесят третьего года рождения. В должности заместителя Министра финансов Российской Федерации находится с две тысячи двенадцатого года. Награжден Почетной грамотой Правительства Российской Федерации. Женат, имеет семеро детей</t>
+  </si>
+  <si>
+    <t>Моисеев Алексей Владимирович - заместитель Министра финансов Российской Федерации с 2012 года по настоящее время.
+Биография:
+Родился 6 марта 1973 года в г. Москва.
+Образование – высшее. В 1995 году окончил Государственную академию управления им. Серго Орджоникидзе по специальности «мировая экономика».
+ПОВЫШЕНИЕ КВАЛИФИКАЦИИ:
+Университет г.Рочестер, США МВА.
+Владеет английским языком
+09.1990 – 06.1995 – студент Государственной академии управления им. Серго Орджоникидзе.
+02.1995 – 09.1996 – экономист 1 категории, ведущий экономист Центрального банка Российской Федерации.
+09.1996 – 07.1998 – студент магистратуры Университета г.Рочестер, США.
+07.1998 – 07.2001 – экономист-старший аналитик по рынку суверенных инструментов Департамента операций на рынке инструментов с фиксированной доходностью Банка Париба (БНП Париба), г.Лондон, Великобритания.
+07.2001 – 09.2010 – старший экономист, заместитель начальника Аналитического управления ООО «Ренессанс Капитал – Финансовый Консультант».
+09.2010 – 07.2012 – заместитель руководителя Аналитического департамента, начальник Управления макроэкономического анализа ЗАО «ВТБ Капитал».
+18.07.2012 – по н/вр – заместитель Министра финансов Российской Федерации.
+1996 – объявлена Благодарность Председателя Банка России
+Награжден Почетной грамотой Правительства Российской Федерации.
+Женат, имеет 7 детей</t>
+  </si>
+  <si>
+    <t>https://www.minfin.ru/ru/ministry/structure/management/?id_4=89</t>
+  </si>
+  <si>
+    <t>31.12.jpg</t>
+  </si>
+  <si>
+    <t>Моисеев Алексей Владимирович</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Трунин, Илья, Вячеславович</t>
+  </si>
+  <si>
+    <t>Трунин Илья Вячеславович, одна тысяча девятьсот семьдесят шестого года рождения. Кандидат экономических наук. Владеет английским и французским языками. В должности заместителя Министра финансов Российской Федерации находится с две тысячи шестнадцатого год</t>
+  </si>
+  <si>
+    <t>Трунин Илья Вячеславович - заместитель Министра финансов Российской Федерации с 2016 года по настоящее время. 
+Биография:
+Родился 29 марта 1976г. г. Рязань.
+Образование высшее. В 1998 году окончил Финансовую академию при Правительстве Российской Федерации по специальности “мировая экономика”.
+Кандидат экономических наук.
+Владеет английским и французским языками.
+09.1993 – 06.1998 студент Финансовой академии при Правительстве Российской Федерации,
+10.1995 – 04.1999 младший научный сотрудник, научный сотрудник Института экономических проблем переходного периода,
+04.1999 – 12.2006 научный сотрудник, заведующий лабораторией Института экономики переходного периода,
+12.2006 – 02.2016 директор Департамента налоговой и таможенно-тарифной политики Министерства финансов Российской Федерации.
+02.2016 – по н/в Заместитель Министра финансов Российской Федерации</t>
+  </si>
+  <si>
+    <t>https://www.minfin.ru/ru/ministry/structure/management/?id_4=12</t>
+  </si>
+  <si>
+    <t>31.13.jpg</t>
+  </si>
+  <si>
+    <t>Трунин Илья Вячеславович</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Сторчак, Сергей, Анатольевич</t>
+  </si>
+  <si>
+    <t>Сторчак Сергей Анатольевич, одна тысяча девятьсот пятьдесят четверного года рождения. Кандидат экономических наук. В должности заместителя Министра финансов Российской Федерации находится с две тысячи пятого года. Сергей Анатольевич награжден Медалью ордена "За заслуги перед Отечеством" второй степени и Орденом Дружбы</t>
+  </si>
+  <si>
+    <t>Сторчак Сергей Анатольевич - заместитель Министра финансов Российской Федерации с 2005 года по настоящее время. 
+Биография:
+Родился 08 июня 1954 г. г. Олевск Житомирской области УССР.
+Образование - высшее, кандидат экономических наук. В 1981 году окончил Московский государственный институт международных отношений МИД СССР по специальности "международные экономические отношения".
+Свободно владеет английским и французским языками.
+09.1971 - 10.1972 Транспортировщик, Краснодарский масложиркомбинат.
+11.1972 - 11.1974 Служба в Советской Армии.
+01.1975 - 08.1976 Транспортный рабочий 2 разряда, Строительное управление - 207 треста "Мосстрой -29" Главмоспромстроя.
+09.1976 - 07.1981 Студент Московского государственного института международных отношений МИД СССР.
+08.1981 - 11.1988 Младший научный сотрудник, старший научный сотрудник Института мировой экономики и международных отношений АН СССР.
+12.1988 - 02.1992 Второй секретарь Постоянного представительства СССР при Отделении ООН и других международных организациях, Министерство иностранных дел СССР.
+02.1992 - 08.1994 Второй секретарь, старший референт Постоянного представительства России при Отделении ООН и других международных организациях, Министерство иностранных дел России.
+08.1994 - 04.1998 Заместитель руководителя Департамента - начальник отдела Департамента иностранных кредитов и внешнего долга, заместитель начальника Департамента иностранных кредитов и внешнего долга, Министерство финансов России.
+04.1998 - 09.2004 Заместитель Председателя Банка внешнеэкономической деятельности СССР.
+09.2004 - 10.2005 Директор Департамента международных финансовых отношений, государственного долга и государственных финансовых активов Министерства финансов Российской Федерации.
+11.2005 - по н/вр Заместитель Министра финансов Российской Федерации.
+В 2000 г. награжден Медалью ордена "За заслуги перед Отечеством" II степени.
+В 2006 г. объявлена благодарность Президента Российской Федерации.
+В 2007 г. награжден Орденом Дружбы</t>
+  </si>
+  <si>
+    <t>https://www.minfin.ru/ru/ministry/structure/management/?id_4=6</t>
+  </si>
+  <si>
+    <t>31.14.jpg</t>
+  </si>
+  <si>
+    <t>Сторчак Сергей Анатольевич</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Котяков, Антон, Олегович</t>
+  </si>
+  <si>
+    <t>Котяков Антон Олегович, одна тысяча девятьсот восьмидесятого года рождения. Кандидат экономических наук. Занимал высокие должности в Министерстве управления финансами Самарской области, в Министерстве финансов Московской области. В должности заместителя Министра финансов Российской Федерации находится с мая две тысячи семнадцатого года</t>
+  </si>
+  <si>
+    <t>Котяков Антон Олегович - заместитель Министра финансов Российской Федерации с мая 2015 года по настоящее время. 
+Биография:
+Родился 15 августа 1980 года в г. Куйбышев.
+Образование – высшее.
+В 2002 году окончил Самарскую государственную экономическую академию, по специальности «Экономическая теория», специализация «Теория и организация рынка ценных бумаг». Диплом с отличием.
+В 2011 году окончил магистратуру в Российской академии народного хозяйства и государственной службы при Президенте РФ по специальности «административное и финансовое право».
+В 2005 году присуждена ученая степень Кандидата экономических наук.
+08.2001 – 08.2005 работал в департаменте управления финансами Администрации Самарской области, пройдя путь от ведущего специалиста до консультанта. 
+08.2005 – 07.2007 — начальник отдела Министерства управления финансами Самарской области.
+07.2007 – 04.2012 — руководитель департамента исполнения областного бюджета и отчетности Министерства управления финансами Самарской области.
+04.2012 – 03.2014 — начальник Управления совершенствования функциональной деятельности ФК РФ.
+03.2014 – 01.2017 — министр финансов Московской области.
+01.2017 – 05.2017 - министр экономики и финансов Московской области.
+05.2017 – по н/вр – заместитель Министра финансов Российской Федерации.
+В 2010 году награжден Почетной грамотой министерства управления финансами Самарской области за безупречную и эффективную государственную службу.
+В 2012 году  Благодарностью Министерства промышленности и торговли Российской Федерации, Почетной грамотой Федерального казначейства, Медалью «20 лет Федеральному казначейству».
+В 2013 году награжден Медалью «Генерал-полковник Дутов».
+В 2015 году награжден Почетной грамотой Губернатора Московской области.
+В 2017 году награжден Знаком «За заслугу перед Московской областью» 3 степени.
+Женат, имеет 2 детей</t>
+  </si>
+  <si>
+    <t>https://www.minfin.ru/ru/ministry/structure/management/?id_4=495</t>
+  </si>
+  <si>
+    <t>Котяков Антон Олегович</t>
+  </si>
+  <si>
+    <t>31.15.jpg</t>
+  </si>
+  <si>
+    <t>Нестеренко Татьяна Геннадьевна</t>
+  </si>
+  <si>
+    <t>31.6.jpg</t>
+  </si>
+  <si>
+    <t>31.10.jpg</t>
+  </si>
+  <si>
+    <t>Колычев Владимир Владимирович</t>
+  </si>
+  <si>
+    <t>31.9.jpg</t>
+  </si>
+  <si>
+    <t>Иванов Андрей Юрьевич</t>
+  </si>
+  <si>
+    <t>31.8.jpg</t>
+  </si>
+  <si>
+    <t>Зубарев Юрий Иванович</t>
+  </si>
+  <si>
+    <t>31.7.jpg</t>
+  </si>
+  <si>
+    <t>Горнин Леонид Владимирович</t>
+  </si>
+  <si>
+    <t>https://www.minfin.ru/ru/ministry/structure/management/?id_4=94</t>
+  </si>
+  <si>
+    <t>31.5.jpg</t>
+  </si>
+  <si>
+    <t>Силуанов Антон Германович</t>
   </si>
   <si>
     <t>В настоящее время в Министерстве Финансов Российской Федерации функционируют двадцать три департамента. Состав департаментов приведен на экране</t>
@@ -772,9 +1211,6 @@
     <t>Московский финансовый форум проводится по инициативе Министерства финансов Российской Федерации и при поддержке Правительства Москвы</t>
   </si>
   <si>
-    <t>Главной темой Московского финансового форума в две тысячи шестнадцатом году стала «Финансовая стратегия России: курс на рост». В ходе пленарных и панельных сессий финансовую стратегию России обсудили более ста спикеров, в том числе заместитель Председателя Правительства РФ Аркадий Дворкович, Мэр Москвы Сергей Собянин, Министр финансов РФ Антон Силуанов, председатель Центрального банка РФ Эльвира Нибиуллина, президент, председатель правления Сбербанка Герман Греф и другие</t>
-  </si>
-  <si>
     <t>В 2016 году на Московском финансовом форуме заявленная тема «Финансовая стратегия России: курс на рост» раскрыта в двух пленарных сессиях и 14 тематических дискуссиях, которые охватили ряд ключевых направлений: от общей экономической ситуации и глобальных рисков до межбюджетных отношений и налогообложения отдельных отраслей.
 В ходе пленарных и панельных сессий финансовую стратегию России обсудили более ста спикеров, в том числе заместитель Председателя Правительства РФ Аркадий Дворкович, Мэр Москвы Сергей Собянин, Министр финансов РФ Антон Силуанов, председатель Центрального банка РФ Эльвира Нибиуллина, президент, председатель правления Сбербанка Герман Греф, председатель совета фонда «Центр стратегических разработок» Алексей Кудрин, председатель Национального Банка Республики Казахстан Данияр Акишев и многие другие</t>
   </si>
@@ -784,6 +1220,51 @@
   </si>
   <si>
     <t>Первый Московский финансовый форум прошел двадцать третьего сентября две тысячи шестнадцатого года по инициативе Министерства финансов Российской Федерации и при поддержке Правительства Москвы</t>
+  </si>
+  <si>
+    <t>31.22.1</t>
+  </si>
+  <si>
+    <t>31.22.2</t>
+  </si>
+  <si>
+    <t>31.22.3</t>
+  </si>
+  <si>
+    <t>31.22.4</t>
+  </si>
+  <si>
+    <t>31.22.5</t>
+  </si>
+  <si>
+    <t>31.22.6</t>
+  </si>
+  <si>
+    <t>31.22.7</t>
+  </si>
+  <si>
+    <t>31.22.8</t>
+  </si>
+  <si>
+    <t>31.22.9</t>
+  </si>
+  <si>
+    <t>31.22.10</t>
+  </si>
+  <si>
+    <t>31.22.11</t>
+  </si>
+  <si>
+    <t>Основной миссией Министерства финансов Российской Федерации является обесп\+ечение эффективного и ответственного управления системой общественных финансов Российской Федерации</t>
+  </si>
+  <si>
+    <t>Главной темой Московского финансового форума в две тысячи шестнадцатом году стала «Финансовая стратегия России: курс на рост». В ходе пленарных и панэльных сессий финансовую стратегию России обсудили более ста спикеров, в том числе заместитель Председателя Правительства РФ Аркадий Дворкович, Мэр Москвы Сергей Собянин, Министр финансов РФ Антон Силуанов, председатель Центрального банка РФ Эльвира Наби\+уллина, президент, председатель правления Сбербанка Герман Греф и другие</t>
+  </si>
+  <si>
+    <t>Б\+окарев Андрей Андреевич</t>
+  </si>
+  <si>
+    <t>Черняк\+ова Елена Евгеньевна</t>
   </si>
 </sst>
 </file>
@@ -1206,21 +1687,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36:R59"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="61.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="90.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="132.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="47.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="28.85546875" style="2" customWidth="1"/>
@@ -1279,7 +1760,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>318</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>27</v>
@@ -1316,13 +1797,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -1331,53 +1812,53 @@
         <v>13</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="283.5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -1397,851 +1878,1169 @@
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>220</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>224</v>
+        <v>302</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>224</v>
+        <v>302</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>227</v>
+        <v>304</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>130</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>159</v>
+        <v>320</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>179</v>
+        <v>321</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>201</v>
+        <v>279</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>205</v>
+        <v>283</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="D59" s="2"/>
+    <row r="36" spans="1:12" ht="378" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" ht="189" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" ht="330.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" location="ixzz4nszNmCKC"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
-    <hyperlink ref="G7" r:id="rId5"/>
-    <hyperlink ref="G13" r:id="rId6"/>
-    <hyperlink ref="G23" r:id="rId7"/>
-    <hyperlink ref="G15" r:id="rId8"/>
-    <hyperlink ref="G14" r:id="rId9"/>
-    <hyperlink ref="G16" r:id="rId10"/>
-    <hyperlink ref="G17" r:id="rId11"/>
-    <hyperlink ref="G18" r:id="rId12"/>
-    <hyperlink ref="G19" r:id="rId13"/>
-    <hyperlink ref="G20" r:id="rId14"/>
-    <hyperlink ref="G21" r:id="rId15"/>
-    <hyperlink ref="G22" r:id="rId16"/>
-    <hyperlink ref="G24" r:id="rId17"/>
-    <hyperlink ref="G25" r:id="rId18"/>
-    <hyperlink ref="G26" r:id="rId19"/>
-    <hyperlink ref="G27" r:id="rId20"/>
-    <hyperlink ref="G28" r:id="rId21"/>
-    <hyperlink ref="G29" r:id="rId22"/>
-    <hyperlink ref="G30" r:id="rId23"/>
-    <hyperlink ref="G31" r:id="rId24"/>
-    <hyperlink ref="G32" r:id="rId25"/>
-    <hyperlink ref="G33" r:id="rId26"/>
-    <hyperlink ref="G34" r:id="rId27"/>
-    <hyperlink ref="G35" r:id="rId28"/>
+    <hyperlink ref="G36" r:id="rId2"/>
+    <hyperlink ref="G37" r:id="rId3"/>
+    <hyperlink ref="G39" r:id="rId4"/>
+    <hyperlink ref="G40" r:id="rId5"/>
+    <hyperlink ref="G41" r:id="rId6"/>
+    <hyperlink ref="G42" r:id="rId7"/>
+    <hyperlink ref="G43" r:id="rId8"/>
+    <hyperlink ref="G44" r:id="rId9"/>
+    <hyperlink ref="G45" r:id="rId10"/>
+    <hyperlink ref="G46" r:id="rId11"/>
+    <hyperlink ref="G38" r:id="rId12"/>
+    <hyperlink ref="G4" r:id="rId13"/>
+    <hyperlink ref="G5" r:id="rId14"/>
+    <hyperlink ref="G6" r:id="rId15"/>
+    <hyperlink ref="G7" r:id="rId16"/>
+    <hyperlink ref="G13" r:id="rId17"/>
+    <hyperlink ref="G23" r:id="rId18"/>
+    <hyperlink ref="G15" r:id="rId19"/>
+    <hyperlink ref="G14" r:id="rId20"/>
+    <hyperlink ref="G16" r:id="rId21"/>
+    <hyperlink ref="G17" r:id="rId22"/>
+    <hyperlink ref="G18" r:id="rId23"/>
+    <hyperlink ref="G19" r:id="rId24"/>
+    <hyperlink ref="G20" r:id="rId25"/>
+    <hyperlink ref="G21" r:id="rId26"/>
+    <hyperlink ref="G22" r:id="rId27"/>
+    <hyperlink ref="G24" r:id="rId28"/>
+    <hyperlink ref="G25" r:id="rId29"/>
+    <hyperlink ref="G26" r:id="rId30"/>
+    <hyperlink ref="G27" r:id="rId31"/>
+    <hyperlink ref="G28" r:id="rId32"/>
+    <hyperlink ref="G29" r:id="rId33"/>
+    <hyperlink ref="G30" r:id="rId34"/>
+    <hyperlink ref="G31" r:id="rId35"/>
+    <hyperlink ref="G32" r:id="rId36"/>
+    <hyperlink ref="G33" r:id="rId37"/>
+    <hyperlink ref="G34" r:id="rId38"/>
+    <hyperlink ref="G35" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
--- a/data/minfin/31_questions.xlsx
+++ b/data/minfin/31_questions.xlsx
@@ -985,15 +985,9 @@
     <t>Гусейнов Гаджимагомед Гаджибуттаевич является директором Департамента бюджетной политики в отраслях экономики с две тысячи шестнадцатого года</t>
   </si>
   <si>
-    <t>Карабанов Дмитрий Сергеевич является директором Департамента проектного финансирования и инвестиционной политики Министерства финансов Российской Федерации с две тысячи шестнадцаого года</t>
-  </si>
-  <si>
     <t>Черняк\+ова Елена Евгеньевна является директором Департамента информационных технологий в сфере управления государственными и муниципальными финансами и информационного обеспечения бюджетного процесса с две тысячи одиннадцатого года</t>
   </si>
   <si>
-    <t>Ахполов Александр Алиханович яляется директором Департамента государственного регулирования в сфере производства, переработки и обращения драгоценных металлов и драгоценных камней и валютного контроля с две тысячи шестнадцатого года</t>
-  </si>
-  <si>
     <t>Лебединская Елена Викторовна является директором Департамента доходов с две тысячи шестнадцатого года</t>
   </si>
   <si>
@@ -1001,11 +995,6 @@
   </si>
   <si>
     <t>Мухина Ольга Сергеевна является директором Департамента проектного управления и развития персонала с две тысячи семнадцатого года</t>
-  </si>
-  <si>
-    <t>Сазанов Алексей Валерьевич является директором Департамента  налоговой и таможенной политики с 2016 года. 
-Образование – высшее, математик, системный программист. В 2005 г. окончил Московский государственный университет им.М.В.Ломоносова по специальности «Прикладная математика и информатика».
-Имеет классный чин действительного государственного советника 3 класса</t>
   </si>
   <si>
     <t>Вышковский Константин Владимирович является директором Департамента государственного долга и государственных финансовых активов с 2010 года.
@@ -1086,10 +1075,6 @@
   <si>
     <t>Афанасьев Андрей Александрович является директором Департамента управления делами и контроля с 2005 года.
 Образование - высшее. В 1980 году закончил Московский государственный университет им. М.В. Ломоносова по специальности "механика"</t>
-  </si>
-  <si>
-    <t>Ахполов Александр Алиханович яляется директором Департамента государственного регулирования в сфере производства, переработки и обращения драгоценных металлов и драгоценных камней и валютного контроля с 2016 года.
-Образование – высшее, в 1983 году окончил Ленинградский государственный университет им.А.А. Жданова по специальности "политическая экономия"</t>
   </si>
   <si>
     <t>Лебединская Елена Викторовна является директором Департамента доходов с 2016 года.
@@ -1335,6 +1320,21 @@
 В 2015 году награжден Почетной грамотой Губернатора Московской области.
 В 2017 году награжден Знаком «За заслугу перед Московской областью» 3 степени.
 Женат, имеет 2 детей</t>
+  </si>
+  <si>
+    <t>Сазанов Алексей Валерьевич является директором Департамента налоговой и таможенной политики с 2016 года. 
+Образование – высшее, математик, системный программист. В 2005 г. окончил Московский государственный университет им.М.В.Ломоносова по специальности «Прикладная математика и информатика».
+Имеет классный чин действительного государственного советника 3 класса</t>
+  </si>
+  <si>
+    <t>Карабанов Дмитрий Сергеевич является директором Департамента проектного финансирования и инвестиционной политики Министерства финансов Российской Федерации с две тысячи шестнадцатого года</t>
+  </si>
+  <si>
+    <t>Ахполов Александр Алиханович является директором Департамента государственного регулирования в сфере производства, переработки и обращения драгоценных металлов и драгоценных камней и валютного контроля с 2016 года.
+Образование – высшее, в 1983 году окончил Ленинградский государственный университет им.А.А. Жданова по специальности "политическая экономия"</t>
+  </si>
+  <si>
+    <t>Ахполов Александр Алиханович является директором Департамента государственного регулирования в сфере производства, переработки и обращения драгоценных металлов и драгоценных камней и валютного контроля с две тысячи шестнадцатого года</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1760,10 +1760,10 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1931,7 +1931,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A13" s="6" t="s">
         <v>122</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>280</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>123</v>
@@ -2079,7 +2079,7 @@
         <v>281</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>130</v>
@@ -2097,7 +2097,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A15" s="11" t="s">
         <v>133</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>282</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>136</v>
@@ -2126,7 +2126,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A16" s="11" t="s">
         <v>139</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>283</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>142</v>
@@ -2155,7 +2155,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="94.5">
       <c r="A17" s="11" t="s">
         <v>145</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>284</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>148</v>
@@ -2184,7 +2184,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="63">
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="78.75">
       <c r="A18" s="11" t="s">
         <v>151</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>285</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>154</v>
@@ -2224,7 +2224,7 @@
         <v>286</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>160</v>
@@ -2253,7 +2253,7 @@
         <v>287</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>165</v>
@@ -2278,7 +2278,7 @@
         <v>288</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>170</v>
@@ -2307,7 +2307,7 @@
         <v>289</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>176</v>
@@ -2336,7 +2336,7 @@
         <v>290</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>182</v>
@@ -2354,7 +2354,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" ht="63">
+    <row r="24" spans="1:9" s="5" customFormat="1" ht="78.75">
       <c r="A24" s="11" t="s">
         <v>185</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>291</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>187</v>
@@ -2390,7 +2390,7 @@
         <v>292</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>192</v>
@@ -2408,7 +2408,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" ht="63">
+    <row r="26" spans="1:9" s="5" customFormat="1" ht="78.75">
       <c r="A26" s="11" t="s">
         <v>195</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>293</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>198</v>
@@ -2437,7 +2437,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" ht="63">
+    <row r="27" spans="1:9" s="5" customFormat="1" ht="78.75">
       <c r="A27" s="11" t="s">
         <v>201</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>294</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>203</v>
@@ -2462,7 +2462,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" ht="63">
+    <row r="28" spans="1:9" s="5" customFormat="1" ht="78.75">
       <c r="A28" s="11" t="s">
         <v>205</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>295</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>208</v>
@@ -2491,7 +2491,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" ht="63">
+    <row r="29" spans="1:9" s="5" customFormat="1" ht="78.75">
       <c r="A29" s="11" t="s">
         <v>211</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>296</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>214</v>
@@ -2528,10 +2528,10 @@
         <v>218</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>219</v>
@@ -2553,10 +2553,10 @@
         <v>222</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>224</v>
@@ -2582,10 +2582,10 @@
         <v>228</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>230</v>
@@ -2611,10 +2611,10 @@
         <v>234</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>236</v>
@@ -2640,10 +2640,10 @@
         <v>240</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>242</v>
@@ -2669,10 +2669,10 @@
         <v>246</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>247</v>
@@ -2697,7 +2697,7 @@
         <v>52</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>51</v>
@@ -2729,7 +2729,7 @@
         <v>56</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>55</v>
@@ -2750,7 +2750,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="315">
+    <row r="38" spans="1:12" ht="299.25">
       <c r="A38" s="6" t="s">
         <v>269</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>59</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>58</v>
@@ -2793,7 +2793,7 @@
         <v>61</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>60</v>
@@ -2825,7 +2825,7 @@
         <v>64</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>63</v>
@@ -2851,13 +2851,13 @@
         <v>272</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>68</v>
@@ -2889,7 +2889,7 @@
         <v>70</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>69</v>
@@ -2921,7 +2921,7 @@
         <v>75</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>74</v>
@@ -2953,7 +2953,7 @@
         <v>80</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>79</v>
@@ -2974,7 +2974,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" ht="362.25">
+    <row r="45" spans="1:12" ht="346.5">
       <c r="A45" s="6" t="s">
         <v>276</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>85</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>84</v>
@@ -3017,7 +3017,7 @@
         <v>90</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>89</v>

--- a/data/minfin/31_questions.xlsx
+++ b/data/minfin/31_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="342">
   <si>
     <t>question</t>
   </si>
@@ -1336,12 +1336,24 @@
   <si>
     <t>Ахполов Александр Алиханович является директором Департамента государственного регулирования в сфере производства, переработки и обращения драгоценных металлов и драгоценных камней и валютного контроля с две тысячи шестнадцатого года</t>
   </si>
+  <si>
+    <t>31.23</t>
+  </si>
+  <si>
+    <t>Что такое Московский Финансовый Форум?</t>
+  </si>
+  <si>
+    <t>Московский финансовый форум – уникальная площадка для профессиональной дискуссии, сфокусированной на поиске лучших решений в области финансовой политики для повышения конкурентоспособности экономики России</t>
+  </si>
+  <si>
+    <t>Что, такое, Московский, Финансовый, Форум</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1749,24 +1761,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="73.7109375" style="2" customWidth="1"/>
@@ -1784,7 +1796,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1822,7 +1834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -1839,7 +1851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="393.75">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1862,7 +1874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="409.5">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1885,7 +1897,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="220.5">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
@@ -1908,7 +1920,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="189">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -1931,7 +1943,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
@@ -1954,7 +1966,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
@@ -1971,7 +1983,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>47</v>
       </c>
@@ -1988,7 +2000,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>48</v>
       </c>
@@ -2005,7 +2017,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25">
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="157.5">
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>50</v>
       </c>
@@ -2039,7 +2051,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>122</v>
       </c>
@@ -2068,7 +2080,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="94.5">
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>127</v>
       </c>
@@ -2097,7 +2109,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>133</v>
       </c>
@@ -2126,7 +2138,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>139</v>
       </c>
@@ -2155,7 +2167,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="94.5">
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>145</v>
       </c>
@@ -2184,7 +2196,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>151</v>
       </c>
@@ -2213,7 +2225,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>157</v>
       </c>
@@ -2242,7 +2254,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>163</v>
       </c>
@@ -2267,7 +2279,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>167</v>
       </c>
@@ -2296,7 +2308,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>173</v>
       </c>
@@ -2325,7 +2337,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>179</v>
       </c>
@@ -2354,7 +2366,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="24" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>185</v>
       </c>
@@ -2379,7 +2391,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>189</v>
       </c>
@@ -2408,7 +2420,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="26" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>195</v>
       </c>
@@ -2437,7 +2449,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="27" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>201</v>
       </c>
@@ -2462,7 +2474,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="28" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>205</v>
       </c>
@@ -2491,7 +2503,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="29" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>211</v>
       </c>
@@ -2520,7 +2532,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="30" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>217</v>
       </c>
@@ -2545,7 +2557,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" s="5" customFormat="1" ht="94.5">
+    <row r="31" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>221</v>
       </c>
@@ -2574,7 +2586,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="32" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>227</v>
       </c>
@@ -2603,7 +2615,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="33" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>233</v>
       </c>
@@ -2632,7 +2644,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="34" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>239</v>
       </c>
@@ -2661,7 +2673,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="35" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>245</v>
       </c>
@@ -2686,7 +2698,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="393.75">
+    <row r="36" spans="1:12" ht="378" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>267</v>
       </c>
@@ -2718,7 +2730,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" ht="409.5">
+    <row r="37" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>268</v>
       </c>
@@ -2750,7 +2762,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="299.25">
+    <row r="38" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>269</v>
       </c>
@@ -2782,7 +2794,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" ht="409.5">
+    <row r="39" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>270</v>
       </c>
@@ -2814,7 +2826,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" ht="393.75">
+    <row r="40" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>271</v>
       </c>
@@ -2846,7 +2858,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" ht="189">
+    <row r="41" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>272</v>
       </c>
@@ -2878,7 +2890,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" ht="409.5">
+    <row r="42" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>273</v>
       </c>
@@ -2910,7 +2922,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" ht="330.75">
+    <row r="43" spans="1:12" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>274</v>
       </c>
@@ -2942,7 +2954,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" ht="204.75">
+    <row r="44" spans="1:12" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>275</v>
       </c>
@@ -2974,7 +2986,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" ht="346.5">
+    <row r="45" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>276</v>
       </c>
@@ -3006,7 +3018,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" ht="378">
+    <row r="46" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>277</v>
       </c>
@@ -3038,34 +3050,48 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12">
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:12">
+    <row r="47" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
     </row>
   </sheetData>

--- a/data/minfin/31_questions.xlsx
+++ b/data/minfin/31_questions.xlsx
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>https://www.minfin.ru/ru/ministry/structure/management/?id_4=5</t>
-  </si>
-  <si>
-    <t>Биография, первого, заместителя, Министра, Нестеренко</t>
   </si>
   <si>
     <t>Нестеренко Татьяна Геннадьевна, одна тысяча девятьсот пятьдесят девятого года рождения. В должности первого заместителя Министра финансов Российской Федерации находится с две тысячи двенадцатого года. 
@@ -428,20 +425,6 @@
   </si>
   <si>
     <t>У Министра Финансов Российской Федерации Силуанова Антона Германовича десять заместителей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">У Силуанова Антона Германовича Министра Финансов Российской Федерации 10 заместителей:
-• НестеренкоТатьяна Геннадьевна - первый заместитель Министра
-• Горнин Леонид Владимирович - заместитель Министра
-• Зубарев Юрий Иванович - статс-секретарь - заместитель Министра
-• Иванов Андрей Юрьевич - заместитель Министра
-• Колычев Владимир Владимирович - заместитель Министра
-• Лавров Алексей Михайлович - заместитель Министра
-• Моисеев Алексей Владимирович - заместитель Министра
-• Трунин Илья Вячеславович - заместитель Министра
-• Сторчак Сергей Анатольевич -заместитель Министра
-• Котяков Антон Олегович - заместитель Министра
-</t>
   </si>
   <si>
     <t xml:space="preserve">Раздел «Руководство» на официальном сайте Министерства финансов Российской Федерации
@@ -1347,6 +1330,23 @@
   </si>
   <si>
     <t>Что, такое, Московский, Финансовый, Форум</t>
+  </si>
+  <si>
+    <t xml:space="preserve">У Силуанова Антона Германовича Министра Финансов Российской Федерации 10 заместителей:
+• Нестеренко Татьяна Геннадьевна - первый заместитель Министра
+• Горнин Леонид Владимирович - заместитель Министра
+• Зубарев Юрий Иванович - статс-секретарь - заместитель Министра
+• Иванов Андрей Юрьевич - заместитель Министра
+• Колычев Владимир Владимирович - заместитель Министра
+• Лавров Алексей Михайлович - заместитель Министра
+• Моисеев Алексей Владимирович - заместитель Министра
+• Трунин Илья Вячеславович - заместитель Министра
+• Сторчак Сергей Анатольевич -заместитель Министра
+• Котяков Антон Олегович - заместитель Министра
+</t>
+  </si>
+  <si>
+    <t>Биография, первого, заместителя, Министра, Нестеренко, 1, зам</t>
   </si>
 </sst>
 </file>
@@ -1772,10 +1772,10 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1842,7 +1842,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>27</v>
@@ -1882,10 +1882,10 @@
         <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -1894,7 +1894,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
@@ -1905,19 +1905,19 @@
         <v>44</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
@@ -1928,19 +1928,19 @@
         <v>45</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -1960,10 +1960,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -1971,16 +1971,16 @@
         <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
@@ -1988,16 +1988,16 @@
         <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -2005,16 +2005,16 @@
         <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -2022,16 +2022,16 @@
         <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
@@ -2039,668 +2039,668 @@
         <v>50</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>124</v>
-      </c>
       <c r="I13" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="F20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="F24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="F27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="F30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="F35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:12" ht="378" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>33</v>
@@ -2709,7 +2709,7 @@
         <v>52</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>51</v>
@@ -2721,10 +2721,10 @@
         <v>54</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -2732,31 +2732,31 @@
     </row>
     <row r="37" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>55</v>
+        <v>341</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -2764,31 +2764,31 @@
     </row>
     <row r="38" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -2796,31 +2796,31 @@
     </row>
     <row r="39" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -2828,31 +2828,31 @@
     </row>
     <row r="40" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -2860,31 +2860,31 @@
     </row>
     <row r="41" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -2892,31 +2892,31 @@
     </row>
     <row r="42" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -2924,31 +2924,31 @@
     </row>
     <row r="43" spans="1:12" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G43" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -2956,31 +2956,31 @@
     </row>
     <row r="44" spans="1:12" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -2988,31 +2988,31 @@
     </row>
     <row r="45" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -3020,51 +3020,51 @@
     </row>
     <row r="46" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="I46" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="D47" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">

--- a/data/minfin/31_questions.xlsx
+++ b/data/minfin/31_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="343">
   <si>
     <t>question</t>
   </si>
@@ -72,10 +72,6 @@
     <t>В Министерстве Финансов Российской Федерации функционируют двадцать три департамента, каждый из которых возглавляет свой директор</t>
   </si>
   <si>
-    <t>В Министерстве Финансов Российской Федерации функционируют двадцать три департамента, каждый из которых возглавляет свой директор
-С перечнем департаментов и биографией их директоров можно ознакомиться на официальном сайте Министерства финансов Российской Федерации</t>
-  </si>
-  <si>
     <t>31.1</t>
   </si>
   <si>
@@ -109,28 +105,6 @@
     <t>Министерство финансов является федеральным органом исполнительной власти, осуществляющим функции по выработке государственной политики и нормативно-правовому регулированию в различных направлениях и сферах деятельности</t>
   </si>
   <si>
-    <t>Министерство финансов является федеральным органом исполнительной власти, осуществляющим функции по выработке государственной политики и нормативно-правовому регулированию в представленных направлениях и сферах деятельности:
-• Бюджетная политика, формирование и контроль исполнения федерального бюджета;
-• Налоговая и таможенно-тарифная политика, международные налоговые отношения;
-• Законы, проекты и положения по бухгалтерскому учету и отчетности, в том числе для субъектов малого предпринимательства;
-• Стандарты и методики проведения аудита, саморегулируемые организации аудиторов, контроль и надзор за аудиторской деятельностью;
-• Внутренний и внешний долг Российской Федерации, выпуск ценных бумаг;
-• Предназначение и принципы формирования резервного фонда и фонда национального благосостояния, отчетность и статистические показатели;
-•  Новости Департамента международных финансовых отношений и материалы по многостороннему финансовому сотрудничеству;
-• Основные результаты и направления бюджетной, пенсионной реформ и финансовый аспект реформы местного самоуправления;
-• Деятельность в сфере финансовых рынков, создание института финансового омбудсмена (уполномоченного);
-• Государственная политика в сфере страховой, банковской, микрофинансовой деятельности и кредитной кооперации;
-• Деятельность по организации игр, основанных на риске;
-• Создание и развитие государственной интегрированной информационной системы управления общественными финансами "Электронный бюджет";
-• Регулирование деятельности по производству и реализации защищенной от подделок полиграфической продукции;
-• Данные сертификатов Кимберлийского процесса, требования к отчетам о поставках драгоценных металлов, статистические данные;
-• Официальные документы, общественный контроль, статистика и аналитика инвестирования пенсионных накоплений;
-• Межбюджетные отношения, мониторинг субъектов Российской Федерации и муниципальных образований, модельные нормативно-правовые акты;
-• Правила предоставления субсидий из федерального бюджета российским кредитным организациям;
-• Федеральная информационная адресная система;
-• Контрактная система</t>
-  </si>
-  <si>
     <t>Чем, занимается, Министерство финансов, деятельность</t>
   </si>
   <si>
@@ -170,13 +144,7 @@
     <t>Биография заместителя Министра Котякова Антона Олеговича</t>
   </si>
   <si>
-    <t>Сколько департаментов в Министерстве Финансов? (и какие?)</t>
-  </si>
-  <si>
     <t>Какие есть подведомственные организации у Минфина?</t>
-  </si>
-  <si>
-    <t>Сколько заместителей Министра финансов ?</t>
   </si>
   <si>
     <t>31.7</t>
@@ -402,16 +370,6 @@
     <t>У Министерства Финансов Российской федерации семь подведомственных организаций. Перечень подведомственных учреждений показан на экране. С задачами и функциями подведомственных учреждений можно ознакомиться на официальном сайте Министерства финансов в разделе «Подведомственные организации»</t>
   </si>
   <si>
-    <t>Подведомственные организации Министерства финансов Российской федерации:
-• Федеральное казенное учреждение «Российская государственная пробирная палата при Министерстве финансов Российской Федерации»,
-• Федеральное казенное учреждение «Государственное учреждение «Ведомственная охрана Министерства финансов Российской Федерации»,
-• Федеральное казенное учреждение «Государственное учреждение по формированию Государственного фонда драгоценных металлов и драгоценных камней Российской Федерации, хранению, отпуску и использованию драгоценных металлов и драгоценных камней (Гохран России) при Министерстве финансов Российской Федерации»,
-• Федеральное государственное унитарное предприятие «Внешнеэкономическое объединение «Алмазювелирэкспорт», 
-• Федеральное казенное учреждение «Государственное учреждение по эксплуатации административных зданий и дачного хозяйства Министерства финансов Российской Федерации»,
-• Федеральное государственное бюджетное учреждение «Научно-исследовательский финансовый институт»,
-• Федеральное государственное бюджетное учреждение «Многофункциональный комплекс Министерства финансов Российской Федерации»</t>
-  </si>
-  <si>
     <t>Раздел «Подведомственные организации» на официальном сайте Министерства финансов Российской федерации</t>
   </si>
   <si>
@@ -844,9 +802,6 @@
   </si>
   <si>
     <t>Кто является организатором Московского финансового форума?</t>
-  </si>
-  <si>
-    <t>Тема пленарного заседания форума в 2016 году и его спикеры?</t>
   </si>
   <si>
     <t>Когда, прошел, первый, Московский финансовый форум, МФФ</t>
@@ -1332,28 +1287,76 @@
     <t>Что, такое, Московский, Финансовый, Форум</t>
   </si>
   <si>
+    <t>Биография, первого, заместителя, Министра, Нестеренко, 1, зам</t>
+  </si>
+  <si>
+    <t>Министерство финансов является федеральным органом исполнительной власти, осуществляющим функции по выработке государственной политики и нормативно-правовому регулированию в представленных направлениях и сферах деятельности:
+• бюджетная политика, формирование и контроль исполнения федерального бюджета;
+• налоговая и таможенно-тарифная политика, международные налоговые отношения;
+• законы, проекты и положения по бухгалтерскому учету и отчетности, в том числе для субъектов малого предпринимательства;
+• стандарты и методики проведения аудита, саморегулируемые организации аудиторов, контроль и надзор за аудиторской деятельностью;
+• внутренний и внешний долг Российской Федерации, выпуск ценных бумаг;
+• предназначение и принципы формирования резервного фонда и фонда национального благосостояния, отчетность и статистические показатели;
+• новости Департамента международных финансовых отношений и материалы по многостороннему финансовому сотрудничеству;
+• основные результаты и направления бюджетной, пенсионной реформ и финансовый аспект реформы местного самоуправления;
+• деятельность в сфере финансовых рынков, создание института финансового омбудсмена (уполномоченного);
+• государственная политика в сфере страховой, банковской, микрофинансовой деятельности и кредитной кооперации;
+• деятельность по организации игр, основанных на риске;
+• создание и развитие государственной интегрированной информационной системы управления общественными финансами "Электронный бюджет";
+• регулирование деятельности по производству и реализации защищенной от подделок полиграфической продукции;
+• данные сертификатов Кимберлийского процесса, требования к отчетам о поставках драгоценных металлов, статистические данные;
+• официальные документы, общественный контроль, статистика и аналитика инвестирования пенсионных накоплений;
+• межбюджетные отношения, мониторинг субъектов Российской Федерации и муниципальных образований, модельные нормативно-правовые акты;
+• правила предоставления субсидий из федерального бюджета российским кредитным организациям;
+• федеральная информационная адресная система;
+• контрактная система</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие департаменты есть в Минфине? </t>
+  </si>
+  <si>
+    <t>Подведомственные организации Министерства финансов Российской федерации:
+• Федеральное казенное учреждение «Российская государственная пробирная палата при Министерстве финансов Российской Федерации»;
+• Федеральное казенное учреждение «Государственное учреждение «Ведомственная охрана Министерства финансов Российской Федерации»;
+• Федеральное казенное учреждение «Государственное учреждение по формированию Государственного фонда драгоценных металлов и драгоценных камней Российской Федерации, хранению, отпуску и использованию драгоценных металлов и драгоценных камней (Гохран России) при Министерстве финансов Российской Федерации»;
+• Федеральное государственное унитарное предприятие «Внешнеэкономическое объединение «Алмазювелирэкспорт»;
+• Федеральное казенное учреждение «Государственное учреждение по эксплуатации административных зданий и дачного хозяйства Министерства финансов Российской Федерации»;
+• Федеральное государственное бюджетное учреждение «Научно-исследовательский финансовый институт»;
+• Федеральное государственное бюджетное учреждение «Многофункциональный комплекс Министерства финансов Российской Федерации»</t>
+  </si>
+  <si>
+    <t>Сколько заместителей у Министра финансов?</t>
+  </si>
+  <si>
+    <t>В Министерстве Финансов Российской Федерации функционируют двадцать три департамента, каждый из которых возглавляет свой директор.
+С перечнем департаментов и биографией их директоров можно ознакомиться на официальном сайте Министерства финансов Российской Федерации</t>
+  </si>
+  <si>
     <t xml:space="preserve">У Силуанова Антона Германовича Министра Финансов Российской Федерации 10 заместителей:
-• Нестеренко Татьяна Геннадьевна - первый заместитель Министра
-• Горнин Леонид Владимирович - заместитель Министра
-• Зубарев Юрий Иванович - статс-секретарь - заместитель Министра
-• Иванов Андрей Юрьевич - заместитель Министра
-• Колычев Владимир Владимирович - заместитель Министра
-• Лавров Алексей Михайлович - заместитель Министра
-• Моисеев Алексей Владимирович - заместитель Министра
-• Трунин Илья Вячеславович - заместитель Министра
-• Сторчак Сергей Анатольевич -заместитель Министра
+• Нестеренко Татьяна Геннадьевна - первый заместитель Министра;
+• Горнин Леонид Владимирович - заместитель Министра;
+• Зубарев Юрий Иванович - статс-секретарь - заместитель Министра;
+• Иванов Андрей Юрьевич - заместитель Министра;
+• Колычев Владимир Владимирович - заместитель Министра;
+• Лавров Алексей Михайлович - заместитель Министра;
+• Моисеев Алексей Владимирович - заместитель Министра;
+• Трунин Илья Вячеславович - заместитель Министра;
+• Сторчак Сергей Анатольевич - заместитель Министра;
 • Котяков Антон Олегович - заместитель Министра
 </t>
   </si>
   <si>
-    <t>Биография, первого, заместителя, Министра, Нестеренко, 1, зам</t>
+    <t>Московский финансовый форум проводится ежегодно. Он приурочен ко Дню финансиста и периоду формирования федерального бюджета, которые приходятся на первую половину сентября</t>
+  </si>
+  <si>
+    <t>Тема пленарного заседания форума в 2016 году и его спикеры</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1761,24 +1764,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="73.7109375" style="2" customWidth="1"/>
@@ -1796,7 +1799,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1834,58 +1837,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="409.5">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="D3" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="409.5">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>336</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -1894,58 +1897,58 @@
         <v>13</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="220.5">
       <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="189">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B6" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>340</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>14</v>
@@ -1954,1144 +1957,1144 @@
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>17</v>
+        <v>339</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="63">
+      <c r="A8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="78.75">
+      <c r="A9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="63">
+      <c r="A10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25">
+      <c r="A11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="157.5">
+      <c r="A12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="78.75">
+      <c r="A13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="H13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="94.5">
+      <c r="A14" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="63">
+      <c r="A15" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="63">
+      <c r="A16" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="78.75">
+      <c r="A17" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="63">
+      <c r="A18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D18" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="78.75">
+      <c r="A19" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D19" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="78.75">
+      <c r="A20" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D20" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="F20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="78.75">
       <c r="A21" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="11" t="s">
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="78.75">
+      <c r="A22" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="B22" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="I22" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B22" s="11" t="s">
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="78.75">
+      <c r="A23" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="B23" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="I23" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="11" t="s">
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1" ht="63">
+      <c r="A24" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="B24" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="F24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="78.75">
       <c r="A25" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="11" t="s">
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1" ht="63">
+      <c r="A26" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="B26" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="I26" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="11" t="s">
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" ht="63">
+      <c r="A27" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="B27" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="F27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="5" customFormat="1" ht="63">
       <c r="A28" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B28" s="11" t="s">
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1" ht="63">
+      <c r="A29" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="B29" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="I29" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B29" s="11" t="s">
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1" ht="78.75">
+      <c r="A30" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="B30" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="F30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="5" customFormat="1" ht="94.5">
       <c r="A31" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B31" s="11" t="s">
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1" ht="78.75">
+      <c r="A32" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="B32" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="5" customFormat="1" ht="63">
+      <c r="A33" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="I33" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B33" s="11" t="s">
+    </row>
+    <row r="34" spans="1:12" s="5" customFormat="1" ht="63">
+      <c r="A34" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="B34" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="I34" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B34" s="11" t="s">
+    </row>
+    <row r="35" spans="1:12" s="5" customFormat="1" ht="63">
+      <c r="A35" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="B35" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="F35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="378" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="378">
       <c r="A36" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="409.5">
       <c r="A37" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="299.25">
       <c r="A38" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="409.5">
       <c r="A39" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="393.75">
       <c r="A40" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" ht="189" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="189">
       <c r="A41" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="409.5">
       <c r="A42" s="6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" ht="330.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="330.75">
       <c r="A43" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="I43" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="204.75">
       <c r="A44" s="6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="I44" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="346.5">
       <c r="A45" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="I45" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="378">
       <c r="A46" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="63">
       <c r="A47" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2">
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2">
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2">
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2">
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2">
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2">
       <c r="B56" s="5"/>
     </row>
   </sheetData>

--- a/data/minfin/31_questions.xlsx
+++ b/data/minfin/31_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -182,14 +182,8 @@
     <t>https://www.minfin.ru/ru/ministry/structure/management/?id_4=34</t>
   </si>
   <si>
-    <t>Биография, заместителя, Министра, Горнин</t>
-  </si>
-  <si>
     <t>Горнин Леонид Владимирович, одна тысяча девятьсот семьдесят второго года рождения. Кандидат экономических наук. В должности заместителя Министра финансов Российской Федерации находится с две тысячи двенадцатого года. 
 За время службы награжден Медалью «За заслуги в проведении Всероссийской сельскохозяйственной переписи две тысячи шестого года» Федеральной службы государственной статистики</t>
-  </si>
-  <si>
-    <t>Биография, секретарь, заместителя, Министра, Зубарев</t>
   </si>
   <si>
     <t>Зубарев Юрий Иванович, одна тысяча девятьсот шестьдесят шестого года рождения. 
@@ -200,9 +194,6 @@
     <t>https://www.minfin.ru/ru/ministry/structure/management/?id_4=100</t>
   </si>
   <si>
-    <t>Биография, заместителя, Министра, Иванов, Андрей, Юрьевич, А.И.</t>
-  </si>
-  <si>
     <t>Иванов Андрей Юрьевич, одна тысяча девятьсот семьдесят пятого года рождения. 
 В должности заместителя Министра финансов Российской Федерации находится с две тысячи двенадцатого года. С две тысячи одиннадцатого года является Членом коллегии Минфина России.
 За время службы Андрей Юрьевич награжден медалью ордена «За заслуги перед Отечеством» второй степени и серебряной Медалью «За вклад в развитие агропромышленного комплекса России» Министерства сельского хозяйства Российской Федерации</t>
@@ -217,12 +208,6 @@
     <t>https://www.minfin.ru/ru/ministry/structure/management/?id_4=478</t>
   </si>
   <si>
-    <t>Биография, заместителя, Министра, Колычев, Владимир, Владимирович</t>
-  </si>
-  <si>
-    <t>Биография, заместителя, Министра, Лавров, Алексей, Михайлович</t>
-  </si>
-  <si>
     <t>Лавров Алексей Михайлович, одна тысяча девятьсот пятьдесят девятого года рождения. В должности заместителя Министра финансов Российской Федерации находится с две тысячи одиннадцатого года. С две тысячи четверного года является Членом коллегии Минфина России.
 За время службы Алексей Михайлович награжден нагрудным знаком «Отличник финансовой работы» Министерства Финансов Российской Федерации, Орденом Почета и орденами "За заслуги перед Отечеством" первой и второй степени</t>
   </si>
@@ -236,9 +221,6 @@
     <t>31.11.jpg</t>
   </si>
   <si>
-    <t>Биография, заместителя, Министра, Моисеев, Алексей, Владимирович</t>
-  </si>
-  <si>
     <t>Моисеев Алексей Владимирович, одна тысяча девятьсот семьдесят третьего года рождения. В должности заместителя Министра финансов Российской Федерации находится с две тысячи двенадцатого года. Награжден Почетной грамотой Правительства Российской Федерации. Женат, имеет семеро детей</t>
   </si>
   <si>
@@ -251,9 +233,6 @@
     <t>Моисеев Алексей Владимирович</t>
   </si>
   <si>
-    <t>Биография, заместителя, Министра, Трунин, Илья, Вячеславович</t>
-  </si>
-  <si>
     <t>Трунин Илья Вячеславович, одна тысяча девятьсот семьдесят шестого года рождения. Кандидат экономических наук. Владеет английским и французским языками. В должности заместителя Министра финансов Российской Федерации находится с две тысячи шестнадцатого год</t>
   </si>
   <si>
@@ -266,9 +245,6 @@
     <t>Трунин Илья Вячеславович</t>
   </si>
   <si>
-    <t>Биография, заместителя, Министра, Сторчак, Сергей, Анатольевич</t>
-  </si>
-  <si>
     <t>Сторчак Сергей Анатольевич, одна тысяча девятьсот пятьдесят четверного года рождения. Кандидат экономических наук. В должности заместителя Министра финансов Российской Федерации находится с две тысячи пятого года. Сергей Анатольевич награжден Медалью ордена "За заслуги перед Отечеством" второй степени и Орденом Дружбы</t>
   </si>
   <si>
@@ -279,9 +255,6 @@
   </si>
   <si>
     <t>Сторчак Сергей Анатольевич</t>
-  </si>
-  <si>
-    <t>Биография, заместителя, Министра, Котяков, Антон, Олегович</t>
   </si>
   <si>
     <t>Котяков Антон Олегович, одна тысяча девятьсот восьмидесятого года рождения. Кандидат экономических наук. Занимал высокие должности в Министерстве управления финансами Самарской области, в Министерстве финансов Московской области. В должности заместителя Министра финансов Российской Федерации находится с мая две тысячи семнадцатого года</t>
@@ -1351,12 +1324,39 @@
   <si>
     <t>Тема пленарного заседания форума в 2016 году и его спикеры</t>
   </si>
+  <si>
+    <t>Биография, заместителя, Министра, Горнин, зам</t>
+  </si>
+  <si>
+    <t>Биография, секретарь, заместителя, Министра, Зубарев, зам</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Иванов, Андрей, Юрьевич, зам</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Колычев, Владимир, Владимирович, зам</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Лавров, Алексей, Михайлович, зам</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Моисеев, Алексей, Владимирович, зам</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Трунин, Илья, Вячеславович, зам</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Сторчак, Сергей, Анатольевич, зам</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Котяков, Антон, Олегович, зам</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1764,24 +1764,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="73.7109375" style="2" customWidth="1"/>
@@ -1799,7 +1799,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>26</v>
@@ -1854,7 +1854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="409.5">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>28</v>
@@ -1877,18 +1877,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="409.5">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -1897,10 +1897,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="220.5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
@@ -1908,45 +1908,45 @@
         <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="189">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="78.75">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -1957,753 +1957,753 @@
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="63">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="78.75">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="63">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="157.5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="78.75">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="H14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="5" t="s">
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="C15" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="94.5">
-      <c r="A14" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="I15" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="B16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="63">
-      <c r="A15" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="B17" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="63">
-      <c r="A16" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="I17" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="B18" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="78.75">
-      <c r="A17" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="B19" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="63">
-      <c r="A18" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="I19" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="B20" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="78.75">
-      <c r="A19" s="11" t="s">
+      <c r="F20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" ht="78.75">
-      <c r="A20" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="F22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="H22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="B23" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" ht="78.75">
-      <c r="A22" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="I23" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" ht="78.75">
-      <c r="A23" s="11" t="s">
+      <c r="F24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" ht="63">
-      <c r="A24" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" ht="78.75">
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="F26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="H26" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="B27" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" ht="63">
-      <c r="A26" s="11" t="s">
+      <c r="F27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" ht="63">
-      <c r="A27" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" ht="63">
+    <row r="28" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="F29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="H29" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="B30" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" ht="63">
-      <c r="A29" s="11" t="s">
+      <c r="F30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" ht="78.75">
-      <c r="A30" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" s="5" customFormat="1" ht="94.5">
+    <row r="31" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="F32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="H32" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="5" customFormat="1" ht="78.75">
-      <c r="A32" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" s="5" customFormat="1" ht="63">
-      <c r="A33" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="I34" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="B35" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" s="5" customFormat="1" ht="63">
-      <c r="A34" s="11" t="s">
+      <c r="F35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="5" customFormat="1" ht="63">
-      <c r="A35" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="378">
+    <row r="36" spans="1:12" ht="378" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>31</v>
@@ -2712,7 +2712,7 @@
         <v>48</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>47</v>
@@ -2724,18 +2724,18 @@
         <v>50</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" ht="409.5">
+    <row r="37" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>32</v>
@@ -2744,10 +2744,10 @@
         <v>51</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>49</v>
@@ -2756,345 +2756,345 @@
         <v>52</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="299.25">
+    <row r="38" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>53</v>
+        <v>334</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" ht="409.5">
+    <row r="39" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>55</v>
+        <v>335</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" ht="393.75">
+    <row r="40" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>58</v>
+        <v>336</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" ht="189">
+    <row r="41" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>63</v>
+        <v>337</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" ht="409.5">
+    <row r="42" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>64</v>
+        <v>338</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" ht="330.75">
+    <row r="43" spans="1:12" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>69</v>
+        <v>339</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" ht="204.75">
+    <row r="44" spans="1:12" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" ht="346.5">
+    <row r="45" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" ht="378">
+    <row r="46" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>84</v>
+        <v>342</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" ht="63">
+    <row r="47" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
     </row>
   </sheetData>

--- a/data/minfin/31_questions.xlsx
+++ b/data/minfin/31_questions.xlsx
@@ -775,9 +775,6 @@
   </si>
   <si>
     <t>Кто является организатором Московского финансового форума?</t>
-  </si>
-  <si>
-    <t>Когда, прошел, первый, Московский финансовый форум, МФФ</t>
   </si>
   <si>
     <t>Кто, является, организатор,  Московского финансового форума, МФФ</t>
@@ -1350,6 +1347,9 @@
   </si>
   <si>
     <t>Биография, заместителя, Министра, Котяков, Антон, Олегович, зам</t>
+  </si>
+  <si>
+    <t>Когда, прошел, первый, Московский финансовый форум, МФФ, 1</t>
   </si>
 </sst>
 </file>
@@ -1775,10 +1775,10 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1845,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>26</v>
@@ -1865,7 +1865,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>28</v>
@@ -1882,7 +1882,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>93</v>
@@ -1911,7 +1911,7 @@
         <v>96</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>100</v>
@@ -1928,13 +1928,13 @@
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>99</v>
@@ -1957,7 +1957,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>15</v>
@@ -1994,13 +1994,13 @@
         <v>238</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>241</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -2011,13 +2011,13 @@
         <v>239</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -2028,13 +2028,13 @@
         <v>240</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
@@ -2042,16 +2042,16 @@
         <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -2062,10 +2062,10 @@
         <v>107</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>107</v>
@@ -2091,10 +2091,10 @@
         <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>114</v>
@@ -2120,10 +2120,10 @@
         <v>118</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>120</v>
@@ -2149,10 +2149,10 @@
         <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>126</v>
@@ -2178,10 +2178,10 @@
         <v>130</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>132</v>
@@ -2207,10 +2207,10 @@
         <v>136</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>138</v>
@@ -2236,10 +2236,10 @@
         <v>142</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>144</v>
@@ -2265,10 +2265,10 @@
         <v>148</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>149</v>
@@ -2290,10 +2290,10 @@
         <v>152</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>154</v>
@@ -2319,10 +2319,10 @@
         <v>158</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>160</v>
@@ -2348,10 +2348,10 @@
         <v>164</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>166</v>
@@ -2377,10 +2377,10 @@
         <v>170</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>171</v>
@@ -2402,10 +2402,10 @@
         <v>174</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>176</v>
@@ -2431,10 +2431,10 @@
         <v>180</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>182</v>
@@ -2460,10 +2460,10 @@
         <v>186</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>187</v>
@@ -2485,10 +2485,10 @@
         <v>190</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>192</v>
@@ -2514,10 +2514,10 @@
         <v>196</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>198</v>
@@ -2543,10 +2543,10 @@
         <v>202</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>203</v>
@@ -2568,10 +2568,10 @@
         <v>206</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>208</v>
@@ -2597,10 +2597,10 @@
         <v>212</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>214</v>
@@ -2626,10 +2626,10 @@
         <v>218</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>220</v>
@@ -2655,10 +2655,10 @@
         <v>224</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>226</v>
@@ -2684,10 +2684,10 @@
         <v>230</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>231</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="36" spans="1:12" ht="378" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>31</v>
@@ -2712,7 +2712,7 @@
         <v>48</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>47</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="37" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>32</v>
@@ -2744,10 +2744,10 @@
         <v>51</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>49</v>
@@ -2765,9 +2765,9 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>33</v>
@@ -2776,10 +2776,10 @@
         <v>53</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>49</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="39" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>34</v>
@@ -2808,10 +2808,10 @@
         <v>54</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>49</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="40" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>35</v>
@@ -2840,10 +2840,10 @@
         <v>56</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>49</v>
@@ -2863,19 +2863,19 @@
     </row>
     <row r="41" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>49</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="42" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>36</v>
@@ -2904,10 +2904,10 @@
         <v>60</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>49</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="43" spans="1:12" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>37</v>
@@ -2936,10 +2936,10 @@
         <v>64</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>49</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="44" spans="1:12" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>38</v>
@@ -2968,10 +2968,10 @@
         <v>68</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>49</v>
@@ -2989,9 +2989,9 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>39</v>
@@ -3000,10 +3000,10 @@
         <v>72</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>49</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="46" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>40</v>
@@ -3032,10 +3032,10 @@
         <v>76</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>49</v>
@@ -3055,19 +3055,19 @@
     </row>
     <row r="47" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">

--- a/data/minfin/31_questions.xlsx
+++ b/data/minfin/31_questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -115,33 +115,6 @@
   </si>
   <si>
     <t>Биография Министра финансов А.Г. Силуанова</t>
-  </si>
-  <si>
-    <t>Биография первого заместителя Министра Нестеренко Татьяны Геннадьевны</t>
-  </si>
-  <si>
-    <t>Биография заместителя Министра Горнина Леонида Владимировича</t>
-  </si>
-  <si>
-    <t>Биография статс-секретаря - заместителя Министра Зубарева Юрия Ивановича</t>
-  </si>
-  <si>
-    <t>Биография заместителя Министра Иванова Андрея Юрьевича</t>
-  </si>
-  <si>
-    <t>Биография заместителя Министра Лаврова Алексея Михайловича</t>
-  </si>
-  <si>
-    <t>Биография заместителя Министра Моисеева Алексея Владимировича</t>
-  </si>
-  <si>
-    <t>Биография заместителя Министра Трунина Ильи Вячеславовича</t>
-  </si>
-  <si>
-    <t>Биография заместителя Министра Сторчака Сергея Анатольевича</t>
-  </si>
-  <si>
-    <t>Биография заместителя Министра Котякова Антона Олеговича</t>
   </si>
   <si>
     <t>Какие есть подведомственные организации у Минфина?</t>
@@ -349,9 +322,6 @@
     <t>https://www.minfin.ru/ru/ministry/subordinate_organizations/</t>
   </si>
   <si>
-    <t>Сколько, заместителей, Министр финансов</t>
-  </si>
-  <si>
     <t>Подведомственные, организации, Минфин, Министерство финансов</t>
   </si>
   <si>
@@ -775,6 +745,9 @@
   </si>
   <si>
     <t>Кто является организатором Московского финансового форума?</t>
+  </si>
+  <si>
+    <t>Когда, прошел, первый, Московский финансовый форум, МФФ</t>
   </si>
   <si>
     <t>Кто, является, организатор,  Московского финансового форума, МФФ</t>
@@ -987,9 +960,6 @@
   <si>
     <t>Лебединская Елена Викторовна является директором Департамента доходов с 2016 года.
 Образование – высшее, в 2006 г. окончила магистратуру Государственного университета – Высшая школа экономики по направлению «Экономика»</t>
-  </si>
-  <si>
-    <t>Биография заместителя Министра Колычева Владимира Владимировича</t>
   </si>
   <si>
     <t>Мухина Ольга Сергеевна является директором Департамента проектного управления и развития персонала с 2017 года.
@@ -1257,9 +1227,6 @@
     <t>Что, такое, Московский, Финансовый, Форум</t>
   </si>
   <si>
-    <t>Биография, первого, заместителя, Министра, Нестеренко, 1, зам</t>
-  </si>
-  <si>
     <t>Министерство финансов является федеральным органом исполнительной власти, осуществляющим функции по выработке государственной политики и нормативно-правовому регулированию в представленных направлениях и сферах деятельности:
 • бюджетная политика, формирование и контроль исполнения федерального бюджета;
 • налоговая и таможенно-тарифная политика, международные налоговые отношения;
@@ -1322,34 +1289,67 @@
     <t>Тема пленарного заседания форума в 2016 году и его спикеры</t>
   </si>
   <si>
-    <t>Биография, заместителя, Министра, Горнин, зам</t>
-  </si>
-  <si>
-    <t>Биография, секретарь, заместителя, Министра, Зубарев, зам</t>
-  </si>
-  <si>
-    <t>Биография, заместителя, Министра, Иванов, Андрей, Юрьевич, зам</t>
-  </si>
-  <si>
-    <t>Биография, заместителя, Министра, Колычев, Владимир, Владимирович, зам</t>
-  </si>
-  <si>
-    <t>Биография, заместителя, Министра, Лавров, Алексей, Михайлович, зам</t>
-  </si>
-  <si>
-    <t>Биография, заместителя, Министра, Моисеев, Алексей, Владимирович, зам</t>
-  </si>
-  <si>
-    <t>Биография, заместителя, Министра, Трунин, Илья, Вячеславович, зам</t>
-  </si>
-  <si>
-    <t>Биография, заместителя, Министра, Сторчак, Сергей, Анатольевич, зам</t>
-  </si>
-  <si>
-    <t>Биография, заместителя, Министра, Котяков, Антон, Олегович, зам</t>
-  </si>
-  <si>
-    <t>Когда, прошел, первый, Московский финансовый форум, МФФ, 1</t>
+    <t>Биография первого заместителя Министра финансов Нестеренко Татьяны Геннадьевны</t>
+  </si>
+  <si>
+    <t>Биография заместителя Министра финансов Горнина Леонида Владимировича</t>
+  </si>
+  <si>
+    <t>Биография статс-секретаря - заместителя Министра финансов Зубарева Юрия Ивановича</t>
+  </si>
+  <si>
+    <t>Биография заместителя Министра финансов Иванова Андрея Юрьевича</t>
+  </si>
+  <si>
+    <t>Биография заместителя Министра финансов Колычева Владимира Владимировича</t>
+  </si>
+  <si>
+    <t>Биография заместителя Министра финансов Лаврова Алексея Михайловича</t>
+  </si>
+  <si>
+    <t>Биография заместителя Министра финансов Моисеева Алексея Владимировича</t>
+  </si>
+  <si>
+    <t>Биография заместителя Министра финансов Трунина Ильи Вячеславовича</t>
+  </si>
+  <si>
+    <t>Биография заместителя Министра финансов Сторчака Сергея Анатольевича</t>
+  </si>
+  <si>
+    <t>Биография заместителя Министра финансов Котякова Антона Олеговича</t>
+  </si>
+  <si>
+    <t>Сколько, заместителей, Министр финансов, зам, замминистр</t>
+  </si>
+  <si>
+    <t>Биография, первого, заместителя, Министра, Нестеренко, 1, зам, замминистр</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Горнин</t>
+  </si>
+  <si>
+    <t>Биография, секретарь, заместителя, Министра, Зубарев</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Иванов, Андрей, Юрьевич</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Колычев, Владимир, Владимирович</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Лавров, Алексей, Михайлович</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Моисеев, Алексей, Владимирович</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Трунин, Илья, Вячеславович</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Сторчак, Сергей, Анатольевич</t>
+  </si>
+  <si>
+    <t>Биография, заместителя, Министра, Котяков, Антон, Олегович</t>
   </si>
 </sst>
 </file>
@@ -1775,10 +1775,10 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1845,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>26</v>
@@ -1865,7 +1865,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>28</v>
@@ -1882,13 +1882,13 @@
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -1897,7 +1897,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
@@ -1905,22 +1905,22 @@
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
@@ -1928,22 +1928,22 @@
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>99</v>
+        <v>332</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -1957,777 +1957,777 @@
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>342</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:12" ht="378" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -2735,63 +2735,63 @@
     </row>
     <row r="37" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>33</v>
+        <v>323</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -2799,31 +2799,31 @@
     </row>
     <row r="39" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>34</v>
+        <v>324</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -2831,31 +2831,31 @@
     </row>
     <row r="40" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>35</v>
+        <v>325</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -2863,31 +2863,31 @@
     </row>
     <row r="41" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -2895,31 +2895,31 @@
     </row>
     <row r="42" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>36</v>
+        <v>327</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -2927,31 +2927,31 @@
     </row>
     <row r="43" spans="1:12" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>37</v>
+        <v>328</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -2959,63 +2959,63 @@
     </row>
     <row r="44" spans="1:12" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>38</v>
+        <v>329</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>39</v>
+        <v>330</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -3023,31 +3023,31 @@
     </row>
     <row r="46" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="G46" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -3055,19 +3055,19 @@
     </row>
     <row r="47" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
